--- a/paper_templates/Template_Auto.xlsx
+++ b/paper_templates/Template_Auto.xlsx
@@ -1,35 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\snowball\paper_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pythons\snowball\paper_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B4165E-DA50-43F0-8F9D-EA7D862B17E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5301FF-A269-4855-8218-4BDC0C3406C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F5E3EE22-C542-4402-8654-7D4EE4676255}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F5E3EE22-C542-4402-8654-7D4EE4676255}"/>
   </bookViews>
   <sheets>
-    <sheet name="Testing Table" sheetId="1" r:id="rId1"/>
-    <sheet name="Logic" sheetId="2" r:id="rId2"/>
+    <sheet name="Template" sheetId="3" r:id="rId1"/>
+    <sheet name="Testing Table" sheetId="1" r:id="rId2"/>
+    <sheet name="Logic" sheetId="2" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
   <definedNames>
+    <definedName name="_1.매출채권">#REF!</definedName>
+    <definedName name="※매출매트릭스">#REF!</definedName>
+    <definedName name="A">'[2]4b Consolidated PL'!#REF!</definedName>
+    <definedName name="AICPA" localSheetId="0">[3]Scoping!$M$17</definedName>
     <definedName name="AICPA">#REF!</definedName>
+    <definedName name="Automated" localSheetId="0">[3]Scoping!$M$21</definedName>
     <definedName name="Automated">#REF!</definedName>
+    <definedName name="ControlType" localSheetId="0">[3]Scoping!$M$27</definedName>
     <definedName name="ControlType">#REF!</definedName>
+    <definedName name="ddd">#REF!</definedName>
+    <definedName name="DesiredEvidence" localSheetId="0">'[3]Drop down'!$I$6:$I$9</definedName>
     <definedName name="DesiredEvidence">#REF!</definedName>
+    <definedName name="Frequency" localSheetId="0">'[3]Drop down'!$C$6:$C$13</definedName>
     <definedName name="Frequency">#REF!</definedName>
+    <definedName name="Interim" localSheetId="0">[3]Scoping!$M$48</definedName>
     <definedName name="Interim">#REF!</definedName>
+    <definedName name="ISA" localSheetId="0">[3]Scoping!$M$12</definedName>
     <definedName name="ISA">#REF!</definedName>
+    <definedName name="IT_depend" localSheetId="0">[3]Scoping!$M$22</definedName>
     <definedName name="IT_depend">#REF!</definedName>
+    <definedName name="LYN">'[4]4b Consolidated PL'!#REF!</definedName>
+    <definedName name="Manual" localSheetId="0">[3]Scoping!$M$23</definedName>
     <definedName name="Manual">#REF!</definedName>
+    <definedName name="NAControlType" localSheetId="0">[3]Scoping!$M$25</definedName>
     <definedName name="NAControlType">#REF!</definedName>
+    <definedName name="NATest_OE" localSheetId="0">[3]Scoping!$M$30</definedName>
     <definedName name="NATest_OE">#REF!</definedName>
+    <definedName name="NoInterim" localSheetId="0">[3]Scoping!$M$46</definedName>
     <definedName name="NoInterim">#REF!</definedName>
+    <definedName name="NOPAE" localSheetId="0">[3]Scoping!$M$10</definedName>
     <definedName name="NOPAE">#REF!</definedName>
+    <definedName name="NoYes" localSheetId="0">'[3]Drop down'!$Q$6:$Q$7</definedName>
     <definedName name="NoYes">#REF!</definedName>
     <definedName name="NvsASD">"V2002-12-31"</definedName>
     <definedName name="NvsAutoDrillOk">"VN"</definedName>
@@ -56,13 +84,30 @@
     <definedName name="NvsTransLed">"VN"</definedName>
     <definedName name="NvsTreeASD">"V2002-12-31"</definedName>
     <definedName name="NvsValTbl.ACCOUNT">"GL_ACCOUNT_TBL"</definedName>
+    <definedName name="ORG">[5]SETUP!$A$3:$A$7</definedName>
+    <definedName name="PCAOB" localSheetId="0">[3]Scoping!$M$18</definedName>
     <definedName name="PCAOB">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Template!$A$1:$C$16</definedName>
+    <definedName name="_xlnm.Print_Area">#REF!</definedName>
+    <definedName name="Print_Area_MI">#REF!</definedName>
+    <definedName name="Question_Type">[6]Values!$B$3:$B$10</definedName>
+    <definedName name="SQL_Col">#REF!</definedName>
+    <definedName name="Test_OE" localSheetId="0">[3]Scoping!$M$32</definedName>
     <definedName name="Test_OE">#REF!</definedName>
+    <definedName name="Type" localSheetId="0">[3]Scoping!$M$20</definedName>
     <definedName name="Type">#REF!</definedName>
+    <definedName name="TypeTest" localSheetId="0">'[3]Drop down'!$K$6:$K$9</definedName>
     <definedName name="TypeTest">#REF!</definedName>
+    <definedName name="Update_Else" localSheetId="0">[3]Scoping!$M$50</definedName>
     <definedName name="Update_Else">#REF!</definedName>
+    <definedName name="US" localSheetId="0">[3]Scoping!$M$15</definedName>
     <definedName name="US">#REF!</definedName>
+    <definedName name="YesNoNA" localSheetId="0">'[3]Drop down'!$G$6:$G$9</definedName>
     <definedName name="YesNoNA">#REF!</definedName>
+    <definedName name="계">#REF!</definedName>
+    <definedName name="ㅁ1">#REF!</definedName>
+    <definedName name="진주원">'[4]4b Consolidated PL'!#REF!</definedName>
+    <definedName name="채권">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -85,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Prior year control testing documentation rolled forward for reference purposes.</t>
   </si>
@@ -147,12 +192,59 @@
     <t>복잡성</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>Client</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepared by</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>통제번호</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>통제명</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>주기</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 절차</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>검토 결과</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>증빙</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨부파일</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>결론</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;;@"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -254,8 +346,54 @@
       <family val="1"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="바탕체"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="KPMG Logo"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,8 +430,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -488,8 +644,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -497,8 +662,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -582,13 +750,88 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="7" borderId="14" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="7" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="7" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="7" borderId="14" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="7" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="8">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{3BAA72D3-48D0-42D1-83E9-40CD5B91847D}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="2" xr:uid="{D3C46FC7-D9BC-4292-9B5B-00C7E85054ED}"/>
     <cellStyle name="표준 2 2" xfId="3" xr:uid="{22F1B8A7-6B8E-41C2-A38F-E45B49D29781}"/>
     <cellStyle name="표준 3" xfId="4" xr:uid="{3447A1CD-01E1-479A-AFD3-E7F2467FC7CF}"/>
+    <cellStyle name="표준 4" xfId="7" xr:uid="{A6A3498D-634A-488B-B97D-5F8DD12E8200}"/>
+    <cellStyle name="표준_Operating_test(1)" xfId="6" xr:uid="{55C03438-65F4-4C96-9B49-8B82AB85BEFE}"/>
+    <cellStyle name="표준_Sheet1" xfId="5" xr:uid="{0BA1D5E1-9F20-4E5E-A115-5848D96306DA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -601,6 +844,489 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="RCM"/>
+      <sheetName val="Template"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="1 START HERE | Overview"/>
+      <sheetName val="2 Financial &amp; Disclosure Accts"/>
+      <sheetName val="3 Cycles &amp; Transactions"/>
+      <sheetName val="4 Transaction Risk Assessment"/>
+      <sheetName val="4c Cycle Coverage"/>
+      <sheetName val="4a Consolidated BS"/>
+      <sheetName val="4b Consolidated PL"/>
+      <sheetName val=" Notes On Categories"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Scoping"/>
+      <sheetName val="Master Procedures (51)"/>
+      <sheetName val="Master Procedures (52)"/>
+      <sheetName val="Master Procedures (53)"/>
+      <sheetName val="Master Control Design"/>
+      <sheetName val="Control Activity-1 - v2016"/>
+      <sheetName val="Control Activity-2 - v2016"/>
+      <sheetName val="Master Control Activity v2016"/>
+      <sheetName val="DataSheet"/>
+      <sheetName val="Master Review Procedures"/>
+      <sheetName val="Master Test Plan"/>
+      <sheetName val="First Test Plan"/>
+      <sheetName val="Control Activity-1 - v2013"/>
+      <sheetName val="Control Activity-2 - v2013"/>
+      <sheetName val="Master Control Activity v2013"/>
+      <sheetName val="Master Follow-Up Items"/>
+      <sheetName val="Master Review Procedures (4)"/>
+      <sheetName val="Master Review Procedures (7)"/>
+      <sheetName val="Master Review Procedures (16)"/>
+      <sheetName val="Master Testing Table Review"/>
+      <sheetName val="Master Procedures (1)"/>
+      <sheetName val="Library Procedures"/>
+      <sheetName val="Master Procedures (2)"/>
+      <sheetName val="Master Procedures (3)"/>
+      <sheetName val="Master Procedures (4)"/>
+      <sheetName val="Master Procedures (5)"/>
+      <sheetName val="Master Procedures (6)"/>
+      <sheetName val="Master Procedures (7)"/>
+      <sheetName val="Master Procedures (8)"/>
+      <sheetName val="Master Procedures (9)"/>
+      <sheetName val="Master Procedures (10)"/>
+      <sheetName val="Master Procedures (11)"/>
+      <sheetName val="Master Procedures (12)"/>
+      <sheetName val="Master Procedures (13)"/>
+      <sheetName val="Master Procedures (14)"/>
+      <sheetName val="Master Procedures (15)"/>
+      <sheetName val="Master Procedures (16)"/>
+      <sheetName val="Master Procedures (CUST)"/>
+      <sheetName val="Master Procedures (CUST_PCAOB)"/>
+      <sheetName val="Master ToC Template"/>
+      <sheetName val="Understanding"/>
+      <sheetName val="ToC Template"/>
+      <sheetName val="Master ToC Template US"/>
+      <sheetName val="Master Testing Table"/>
+      <sheetName val="Testing Table"/>
+      <sheetName val="추가 권한 부여 이력(1~6월)"/>
+      <sheetName val="추가 권한 부여 이력(7~10월)"/>
+      <sheetName val="추가 권한 부여 이력(11~12월)"/>
+      <sheetName val="추가 권한 부여 대상자 중복 제거값"/>
+      <sheetName val="Master Testing Table US"/>
+      <sheetName val="Master Update"/>
+      <sheetName val="Update"/>
+      <sheetName val="Master PAE_AICPA"/>
+      <sheetName val="Master PAE_NonUS"/>
+      <sheetName val="Master PAE_PCAOB"/>
+      <sheetName val="Drop down"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="10">
+          <cell r="M10" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="M12" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="M15" t="b">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="M17" t="b">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="M18" t="b">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="M20" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="M21" t="b">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="M22" t="b">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="M23" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="M25" t="b">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="M27" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="M30" t="b">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="M32" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="M46" t="b">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="M48" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="M50" t="b">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
+      <sheetData sheetId="38" refreshError="1"/>
+      <sheetData sheetId="39" refreshError="1"/>
+      <sheetData sheetId="40" refreshError="1"/>
+      <sheetData sheetId="41" refreshError="1"/>
+      <sheetData sheetId="42" refreshError="1"/>
+      <sheetData sheetId="43" refreshError="1"/>
+      <sheetData sheetId="44" refreshError="1"/>
+      <sheetData sheetId="45" refreshError="1"/>
+      <sheetData sheetId="46" refreshError="1"/>
+      <sheetData sheetId="47" refreshError="1"/>
+      <sheetData sheetId="48" refreshError="1"/>
+      <sheetData sheetId="49" refreshError="1"/>
+      <sheetData sheetId="50" refreshError="1"/>
+      <sheetData sheetId="51" refreshError="1"/>
+      <sheetData sheetId="52" refreshError="1"/>
+      <sheetData sheetId="53" refreshError="1"/>
+      <sheetData sheetId="54" refreshError="1"/>
+      <sheetData sheetId="55">
+        <row r="6">
+          <cell r="Q6" t="str">
+            <v>No</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7" t="str">
+            <v>하루에 여러번
+Multiple times a day</v>
+          </cell>
+          <cell r="G7" t="str">
+            <v>해당사항 없음, 예외 없음
+N/A, no exception</v>
+          </cell>
+          <cell r="I7" t="str">
+            <v>낮음
+Low</v>
+          </cell>
+          <cell r="K7" t="str">
+            <v>관찰
+Observation</v>
+          </cell>
+          <cell r="Q7" t="str">
+            <v>Yes</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8" t="str">
+            <v>매일
+Daily</v>
+          </cell>
+          <cell r="G8" t="str">
+            <v>네, CD/W가 생성됨
+Yes, CD/W created</v>
+          </cell>
+          <cell r="I8" t="str">
+            <v>보통
+Moderate</v>
+          </cell>
+          <cell r="K8" t="str">
+            <v>조사
+Inspection</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9" t="str">
+            <v>매주
+Weekly</v>
+          </cell>
+          <cell r="G9" t="str">
+            <v>No</v>
+          </cell>
+          <cell r="I9" t="str">
+            <v>높음
+High</v>
+          </cell>
+          <cell r="K9" t="str">
+            <v>재수행
+Reperformance</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10" t="str">
+            <v>월별
+Monthly</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11" t="str">
+            <v>분기별
+Quarterly</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12" t="str">
+            <v>매년
+Annually</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13" t="str">
+            <v>필요시 또는 기타
+As needed or Other</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="1 START HERE | Overview"/>
+      <sheetName val="2 Financial &amp; Disclosure Accts"/>
+      <sheetName val="3 Cycles &amp; Transactions"/>
+      <sheetName val="4 Transaction Risk Assessment"/>
+      <sheetName val="4c Cycle Coverage"/>
+      <sheetName val="4a Consolidated BS"/>
+      <sheetName val="4b Consolidated PL"/>
+      <sheetName val=" Notes On Categories"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="결과 (2)"/>
+      <sheetName val="포항"/>
+      <sheetName val="TWB"/>
+      <sheetName val="결과"/>
+      <sheetName val="SETUP"/>
+      <sheetName val="도움말"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4">
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>HQ</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>PP</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>KP</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>BP</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>%</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Instructions"/>
+      <sheetName val="Parameters"/>
+      <sheetName val="Template"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Activity Template"/>
+      <sheetName val="Example"/>
+      <sheetName val="Values"/>
+      <sheetName val="LU"/>
+      <sheetName val="SETUP"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1">
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Yes/No</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>Multiple Choice</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>Multiple Selection</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>Number</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>Date</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>Text</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>User Name</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>Comment Only</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -919,6 +1645,206 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55EA420-EB33-45EC-B0BF-ABFBD22D3EE0}">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="2.42578125" style="32" customWidth="1"/>
+    <col min="2" max="2" width="39" style="32" customWidth="1"/>
+    <col min="3" max="3" width="115" style="32" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" style="32" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="28" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="27"/>
+    </row>
+    <row r="2" spans="1:4" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+    </row>
+    <row r="3" spans="1:4" s="28" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A3" s="31"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+    </row>
+    <row r="4" spans="1:4" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+    </row>
+    <row r="5" spans="1:4" s="28" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A5" s="31"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+    </row>
+    <row r="7" spans="1:4" ht="29.25" customHeight="1">
+      <c r="A7" s="30"/>
+      <c r="B7" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+    </row>
+    <row r="8" spans="1:4" ht="32.25" customHeight="1">
+      <c r="A8" s="30"/>
+      <c r="B8" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="37"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1">
+      <c r="A9" s="30"/>
+      <c r="B9" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="38"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1">
+      <c r="A10" s="30"/>
+      <c r="B10" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="39"/>
+    </row>
+    <row r="11" spans="1:4" s="42" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="40"/>
+      <c r="B11" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="38"/>
+    </row>
+    <row r="12" spans="1:4" s="42" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="40"/>
+      <c r="B12" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="38"/>
+    </row>
+    <row r="13" spans="1:4" s="42" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="40"/>
+      <c r="B13" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="38"/>
+    </row>
+    <row r="14" spans="1:4" ht="300" customHeight="1">
+      <c r="A14" s="30"/>
+      <c r="B14" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="38"/>
+    </row>
+    <row r="15" spans="1:4" s="42" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="40"/>
+      <c r="B15" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="43"/>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1">
+      <c r="A16" s="30"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+    </row>
+    <row r="17" spans="2:4" ht="15" customHeight="1">
+      <c r="B17" s="46"/>
+      <c r="D17" s="35"/>
+    </row>
+    <row r="18" spans="2:4" ht="15" customHeight="1">
+      <c r="B18" s="46"/>
+      <c r="D18" s="35"/>
+    </row>
+    <row r="19" spans="2:4" ht="15" customHeight="1">
+      <c r="B19" s="46"/>
+      <c r="D19" s="35"/>
+    </row>
+    <row r="20" spans="2:4" ht="15" customHeight="1">
+      <c r="B20" s="46"/>
+      <c r="D20" s="35"/>
+    </row>
+    <row r="21" spans="2:4" ht="15" customHeight="1">
+      <c r="B21" s="46"/>
+      <c r="D21" s="35"/>
+    </row>
+    <row r="22" spans="2:4" ht="15" customHeight="1">
+      <c r="B22" s="46"/>
+      <c r="D22" s="35"/>
+    </row>
+    <row r="23" spans="2:4" ht="15" customHeight="1">
+      <c r="B23" s="46"/>
+      <c r="D23" s="35"/>
+    </row>
+    <row r="24" spans="2:4" ht="15" customHeight="1">
+      <c r="B24" s="46"/>
+      <c r="D24" s="35"/>
+    </row>
+    <row r="25" spans="2:4" ht="15" customHeight="1">
+      <c r="B25" s="46"/>
+      <c r="D25" s="35"/>
+    </row>
+    <row r="26" spans="2:4" ht="15" customHeight="1">
+      <c r="B26" s="46"/>
+      <c r="D26" s="35"/>
+    </row>
+    <row r="27" spans="2:4" ht="15" customHeight="1">
+      <c r="B27" s="46"/>
+      <c r="D27" s="35"/>
+    </row>
+    <row r="28" spans="2:4" ht="15" customHeight="1">
+      <c r="B28" s="46"/>
+      <c r="D28" s="35"/>
+    </row>
+    <row r="29" spans="2:4" ht="15" customHeight="1">
+      <c r="B29" s="46"/>
+      <c r="D29" s="35"/>
+    </row>
+    <row r="30" spans="2:4" ht="15" customHeight="1">
+      <c r="B30" s="46"/>
+      <c r="D30" s="35"/>
+    </row>
+    <row r="31" spans="2:4" ht="15" customHeight="1">
+      <c r="B31" s="46"/>
+      <c r="D31" s="35"/>
+    </row>
+    <row r="32" spans="2:4" ht="15" customHeight="1">
+      <c r="B32" s="46"/>
+      <c r="D32" s="35"/>
+    </row>
+    <row r="33" spans="2:4" ht="15" customHeight="1">
+      <c r="B33" s="46"/>
+      <c r="D33" s="35"/>
+    </row>
+    <row r="34" spans="2:4" ht="15" customHeight="1">
+      <c r="D34" s="35"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.70866141732283472" bottom="0" header="0.51181102362204722" footer="0.11811023622047245"/>
+  <pageSetup paperSize="9" scale="53" fitToHeight="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA5D280-60A6-430D-9E73-453CF186F018}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -929,7 +1855,7 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" customWidth="1"/>
@@ -942,7 +1868,7 @@
     <col min="10" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="1" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7" s="1" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
@@ -951,8 +1877,8 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
     </row>
-    <row r="2" spans="2:7" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" ht="6" customHeight="1" thickBot="1"/>
+    <row r="3" spans="2:7" ht="24.95" customHeight="1" thickBot="1">
       <c r="B3" s="22" t="s">
         <v>1</v>
       </c>
@@ -961,7 +1887,7 @@
       <c r="E3" s="23"/>
       <c r="F3" s="24"/>
     </row>
-    <row r="4" spans="2:7" s="3" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" s="3" customFormat="1" ht="14.25" thickBot="1">
       <c r="B4" s="15" t="s">
         <v>2</v>
       </c>
@@ -978,7 +1904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" ht="15" customHeight="1">
       <c r="B5" s="4">
         <v>1</v>
       </c>
@@ -988,15 +1914,15 @@
       <c r="F5" s="7"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="15" customHeight="1" thickBot="1">
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="10"/>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" ht="14.45" customHeight="1"/>
+    <row r="8" spans="2:7" s="13" customFormat="1">
       <c r="B8" s="12" t="s">
         <v>5</v>
       </c>
@@ -1013,13 +1939,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DA7CA0-B8CA-4FC4-ACD7-E5ADBE514D11}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
